--- a/documents/Product-backlog.xlsx
+++ b/documents/Product-backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emabu\Desktop\Hons Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496FA65-10A6-4867-B323-F53846002029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686CF8A8-A5BA-4AA7-9DC5-D23F8F6E56C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C48BF9C-2198-4D37-9087-E43180C5896C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{7C48BF9C-2198-4D37-9087-E43180C5896C}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
     <sheet name="TODO" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint 1'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint 2'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint 3'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sprint 4'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sprint 1'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint 2'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint 3'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sprint 4'!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
     <t>outline how urgent my request is</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>SPRINT 4</t>
   </si>
   <si>
-    <t>Error handling</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -458,9 +452,6 @@
     <t>Update list of requests page</t>
   </si>
   <si>
-    <t>update review request page</t>
-  </si>
-  <si>
     <t>Custom search</t>
   </si>
   <si>
@@ -470,17 +461,29 @@
     <t>Fix rules</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Error page</t>
+  </si>
+  <si>
+    <t>Update review request page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update custom search with a better RTA </t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>oversee  other technicians' profiles</t>
+  </si>
+  <si>
+    <t>From feedback:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,15 +551,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,12 +627,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -891,9 +881,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -902,16 +889,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
@@ -938,9 +916,6 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,136 +926,21 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
-    <dxf>
-      <font>
-        <color rgb="FF1C4587"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7F6000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4587"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7F6000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4587"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7F6000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4587"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7F6000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="115">
     <dxf>
       <font>
         <color rgb="FF1C4587"/>
@@ -2404,36 +2264,6 @@
         <color theme="0" tint="-0.14999847407452621"/>
       </font>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1C4587"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6D9EEB"/>
-          <bgColor rgb="FF6D9EEB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7F6000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="6"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2457,21 +2287,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D41860-E11C-4CE0-BB2D-76F339BE7ED0}" name="Table_1" displayName="Table_1" ref="A1:I46" headerRowDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D41860-E11C-4CE0-BB2D-76F339BE7ED0}" name="Table_1" displayName="Table_1" ref="A1:I46" headerRowDxfId="114">
   <autoFilter ref="A1:I46" xr:uid="{51D41860-E11C-4CE0-BB2D-76F339BE7ED0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
     <sortCondition ref="H1:H46"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E62D17E6-7898-478F-AA7B-7A314E2B6210}" name="ID" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{83B4C3F6-5A11-4AFE-A4DD-8A438B93F341}" name="As a &lt; type of user &gt;" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{62F56E11-A80E-4278-AD4E-E15381928696}" name="I want to &lt; perform some task &gt;" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{290DF1F5-8A33-4E5C-89F6-B4873A11549A}" name="so that I can &lt; achieve some goal &gt;" dataDxfId="122"/>
-    <tableColumn id="7" xr3:uid="{6E42775D-7D61-4D31-9C72-39D5E78ACBB0}" name="MoSCoW" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{9D1A0870-85A1-4B6E-A439-BCC623628D7A}" name="Priority" dataDxfId="120"/>
-    <tableColumn id="8" xr3:uid="{899C35B6-D59A-41CC-AFFB-0E79EB83591B}" name="Story Points" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{C6E3320C-37E0-4AF2-9ECF-C6D1E49CF03D}" name="Sprint" dataDxfId="118"/>
-    <tableColumn id="11" xr3:uid="{739E4D50-611A-4C1C-83EC-54549723041C}" name="Status" dataDxfId="117"/>
+    <tableColumn id="1" xr3:uid="{E62D17E6-7898-478F-AA7B-7A314E2B6210}" name="ID" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{83B4C3F6-5A11-4AFE-A4DD-8A438B93F341}" name="As a &lt; type of user &gt;" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{62F56E11-A80E-4278-AD4E-E15381928696}" name="I want to &lt; perform some task &gt;" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{290DF1F5-8A33-4E5C-89F6-B4873A11549A}" name="so that I can &lt; achieve some goal &gt;" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{6E42775D-7D61-4D31-9C72-39D5E78ACBB0}" name="MoSCoW" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{9D1A0870-85A1-4B6E-A439-BCC623628D7A}" name="Priority" dataDxfId="108"/>
+    <tableColumn id="8" xr3:uid="{899C35B6-D59A-41CC-AFFB-0E79EB83591B}" name="Story Points" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{C6E3320C-37E0-4AF2-9ECF-C6D1E49CF03D}" name="Sprint" dataDxfId="106"/>
+    <tableColumn id="11" xr3:uid="{739E4D50-611A-4C1C-83EC-54549723041C}" name="Status" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2776,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E21DE6-9B6A-4D2A-9E2B-CD53C7CE66E9}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2930,8 +2760,8 @@
         <v>72</v>
       </c>
       <c r="L4" s="15">
-        <f>SUM(G21:G29)</f>
-        <v>29</v>
+        <f>SUM(G21:G28)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2966,8 +2796,8 @@
         <v>73</v>
       </c>
       <c r="L5" s="15">
-        <f>SUM(G30:G41)</f>
-        <v>40</v>
+        <f>SUM(G29:G38)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3300,7 +3130,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>32</v>
@@ -3323,13 +3153,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>26</v>
@@ -3355,10 +3185,10 @@
         <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>26</v>
@@ -3532,7 +3362,7 @@
         <v>83</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>32</v>
@@ -3561,7 +3391,7 @@
         <v>86</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>32</v>
@@ -3703,10 +3533,10 @@
         <v>64</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>32</v>
@@ -3950,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>12</v>
@@ -3979,7 +3809,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>12</v>
@@ -4008,7 +3838,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I41" s="20" t="s">
         <v>12</v>
@@ -4037,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>12</v>
@@ -4066,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>12</v>
@@ -4095,7 +3925,7 @@
         <v>5</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>12</v>
@@ -4124,7 +3954,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>12</v>
@@ -4152,8 +3982,8 @@
       <c r="G46" s="3">
         <v>3</v>
       </c>
-      <c r="H46" s="37" t="s">
-        <v>135</v>
+      <c r="H46" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>12</v>
@@ -4161,17 +3991,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I46">
-    <cfRule type="cellIs" dxfId="129" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="40" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I46">
-    <cfRule type="cellIs" dxfId="128" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="41" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I46">
-    <cfRule type="cellIs" dxfId="127" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="42" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4185,38 +4015,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E6A97-4644-44E7-A4EF-BF62C4FCBE14}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="4" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -4235,14 +4062,11 @@
       <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -4261,14 +4085,11 @@
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -4287,14 +4108,11 @@
       <c r="F5" s="9">
         <v>2</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -4313,14 +4131,11 @@
       <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -4339,14 +4154,11 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -4365,14 +4177,11 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>64</v>
       </c>
@@ -4391,14 +4200,11 @@
       <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>64</v>
       </c>
@@ -4417,85 +4223,39 @@
       <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{362E6A97-4644-44E7-A4EF-BF62C4FCBE14}"/>
-  <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
+  <autoFilter ref="A2:G2" xr:uid="{362E6A97-4644-44E7-A4EF-BF62C4FCBE14}"/>
+  <conditionalFormatting sqref="G3:G8">
+    <cfRule type="cellIs" dxfId="101" priority="22" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="115" priority="23" operator="equal">
+  <conditionalFormatting sqref="G3:G8">
+    <cfRule type="cellIs" dxfId="100" priority="23" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H8">
-    <cfRule type="cellIs" dxfId="114" priority="24" operator="equal">
+  <conditionalFormatting sqref="G3:G8">
+    <cfRule type="cellIs" dxfId="99" priority="24" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H12">
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
-      <formula>"To Be Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="110" priority="1" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="equal">
+  <conditionalFormatting sqref="G9:G10">
+    <cfRule type="cellIs" dxfId="96" priority="3" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4505,10 +4265,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA19C72-987D-4675-BD7D-BCFA06002E10}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4517,55 +4277,48 @@
     <col min="2" max="2" width="31.5546875" customWidth="1"/>
     <col min="3" max="3" width="34.5546875" customWidth="1"/>
     <col min="4" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>3</v>
       </c>
-      <c r="G3" s="28">
-        <v>1</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -4584,14 +4337,11 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -4610,14 +4360,11 @@
       <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -4636,14 +4383,11 @@
       <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -4662,14 +4406,11 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -4677,7 +4418,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>32</v>
@@ -4688,14 +4429,11 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -4714,14 +4452,11 @@
       <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -4740,22 +4475,19 @@
       <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
@@ -4766,14 +4498,11 @@
       <c r="F11" s="3">
         <v>5</v>
       </c>
-      <c r="G11" s="7">
-        <v>2</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -4792,22 +4521,19 @@
       <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="7">
-        <v>3</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>26</v>
@@ -4818,14 +4544,11 @@
       <c r="F13" s="16">
         <v>2</v>
       </c>
-      <c r="G13" s="31">
-        <v>3</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
@@ -4844,239 +4567,189 @@
       <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="7">
-        <v>3</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="40" t="s">
-        <v>12</v>
+      <c r="G14" s="29" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{7BA19C72-987D-4675-BD7D-BCFA06002E10}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H15">
-      <sortCondition ref="G2"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="107" priority="40" operator="equal">
+  <autoFilter ref="A2:G2" xr:uid="{7BA19C72-987D-4675-BD7D-BCFA06002E10}"/>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="106" priority="41" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="94" priority="44" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="105" priority="42" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="93" priority="45" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="104" priority="34" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="92" priority="37" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="103" priority="35" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="91" priority="38" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="102" priority="36" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="90" priority="39" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="101" priority="31" operator="equal">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="89" priority="34" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="100" priority="32" operator="equal">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="88" priority="35" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="99" priority="33" operator="equal">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="87" priority="36" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="98" priority="28" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="86" priority="31" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="97" priority="29" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="85" priority="32" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="96" priority="30" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="84" priority="33" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="95" priority="25" operator="equal">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="83" priority="28" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="94" priority="26" operator="equal">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="82" priority="29" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="93" priority="27" operator="equal">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="81" priority="30" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="92" priority="22" operator="equal">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="80" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="91" priority="23" operator="equal">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="79" priority="26" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="90" priority="24" operator="equal">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="78" priority="27" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="89" priority="19" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="77" priority="22" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="88" priority="20" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="76" priority="23" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="87" priority="21" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="75" priority="24" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="86" priority="16" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="73" priority="20" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="72" priority="21" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="71" priority="16" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="82" priority="14" operator="equal">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="70" priority="17" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="81" priority="15" operator="equal">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="69" priority="18" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="80" priority="10" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="67" priority="14" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="66" priority="15" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="77" priority="7" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="76" priority="8" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
-      <formula>"To Be Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5086,10 +4759,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258566AA-15E6-43C1-8BD5-B6C27CFAE1CA}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5099,21 +4772,16 @@
     <col min="3" max="3" width="35.5546875" customWidth="1"/>
     <col min="4" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5132,14 +4800,11 @@
       <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -5158,19 +4823,16 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>30</v>
@@ -5184,22 +4846,19 @@
       <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>26</v>
@@ -5210,19 +4869,16 @@
       <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>59</v>
@@ -5236,14 +4892,11 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -5262,19 +4915,16 @@
       <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="G8" s="10">
-        <v>2</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>50</v>
@@ -5288,14 +4938,11 @@
       <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>65</v>
       </c>
@@ -5314,15 +4961,12 @@
       <c r="F10" s="3">
         <v>8</v>
       </c>
-      <c r="G10" s="30">
-        <v>3</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="G10" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5340,19 +4984,16 @@
       <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="30">
-        <v>3</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="G11" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="3" t="s">
@@ -5364,19 +5005,16 @@
       <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="19">
-        <v>3</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="3" t="s">
@@ -5388,238 +5026,159 @@
       <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="19">
-        <v>3</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="40" t="s">
-        <v>12</v>
+      <c r="G13" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{258566AA-15E6-43C1-8BD5-B6C27CFAE1CA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H14">
-      <sortCondition ref="G2"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+  <autoFilter ref="A2:G2" xr:uid="{258566AA-15E6-43C1-8BD5-B6C27CFAE1CA}"/>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="58" priority="71" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="57" priority="72" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="62" priority="52" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="61" priority="53" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="60" priority="54" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="59" priority="46" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="58" priority="47" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="47" priority="28" operator="equal">
+  <conditionalFormatting sqref="G10:G11">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+  <conditionalFormatting sqref="G10:G11">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+  <conditionalFormatting sqref="G10:G11">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="44" priority="25" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="42" priority="27" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
-      <formula>"To Be Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
-      <formula>"To Be Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5629,10 +5188,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8DDD33-DFCA-4B23-A1B3-2D5281721701}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5641,20 +5200,16 @@
     <col min="2" max="3" width="37" customWidth="1"/>
     <col min="4" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="8" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5673,22 +5228,19 @@
       <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
@@ -5699,14 +5251,11 @@
       <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="30">
-        <v>1</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -5725,22 +5274,19 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="30">
-        <v>1</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="G5" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>32</v>
@@ -5751,21 +5297,18 @@
       <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -5777,22 +5320,19 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>32</v>
@@ -5803,22 +5343,19 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>32</v>
@@ -5829,19 +5366,16 @@
       <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>66</v>
@@ -5855,15 +5389,12 @@
       <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="G10" s="10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="G10" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5881,14 +5412,11 @@
       <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -5907,14 +5435,11 @@
       <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="10">
-        <v>3</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -5933,22 +5458,19 @@
       <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="10">
-        <v>3</v>
-      </c>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -5959,209 +5481,159 @@
       <c r="F14" s="3">
         <v>5</v>
       </c>
-      <c r="G14" s="10">
-        <v>3</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="40" t="s">
-        <v>12</v>
+      <c r="G14" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{EA8DDD33-DFCA-4B23-A1B3-2D5281721701}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H16">
-      <sortCondition ref="G2"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
+  <autoFilter ref="A2:G2" xr:uid="{EA8DDD33-DFCA-4B23-A1B3-2D5281721701}"/>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="29" priority="46" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="28" priority="47" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="30" priority="45" operator="equal">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="27" priority="48" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="15" priority="30" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+  <conditionalFormatting sqref="G8 G6 G4">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+  <conditionalFormatting sqref="G8 G6 G4">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+  <conditionalFormatting sqref="G8 G6 G4">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H6 H4">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H6 H4">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H6 H4">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"To Be Started"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"To Be Started"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6172,10 +5644,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89B0E99-9999-4813-8681-7209FF15C8CF}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6185,112 +5657,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B3" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B4" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="B5" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="B10" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="23"/>
-    </row>
-    <row r="10" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="B14" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="22"/>
-    </row>
-    <row r="14" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>129</v>
+      <c r="B17" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
